--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-sharding-proxy/hzero-sharding-proxy-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-sharding-proxy/hzero-sharding-proxy-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="339">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2136,10 +2136,10 @@
     <t>Sharding配置管理</t>
   </si>
   <si>
-    <t>Sharding configuration management</t>
-  </si>
-  <si>
-    <t>SCM</t>
+    <t>Sharding config</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>dir</t>
@@ -2196,6 +2196,9 @@
     <t>Logical data source details - New</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2253,6 +2256,18 @@
     <t>iam_menu-15</t>
   </si>
   <si>
+    <t>hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.detail.-id.button.setDefault</t>
+  </si>
+  <si>
+    <t>逻辑数据源组管理详情-设为默认</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.logical-data-source-group|hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.detail.-id.button.setDefault</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
     <t>hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.detail.-id.button.up</t>
   </si>
   <si>
@@ -2265,13 +2280,13 @@
     <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.logical-data-source-group|hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.detail.-id.button.up</t>
   </si>
   <si>
-    <t>iam_menu-16</t>
+    <t>iam_menu-17</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.create</t>
   </si>
   <si>
-    <t>WebHook配置-新建</t>
+    <t>逻辑数据源组-新建</t>
   </si>
   <si>
     <t>Webhook configuration - New</t>
@@ -2280,7 +2295,7 @@
     <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.logical-data-source-group|hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.create</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
+    <t>iam_menu-18</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.delete</t>
@@ -2295,7 +2310,7 @@
     <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.logical-data-source-group|hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.delete</t>
   </si>
   <si>
-    <t>iam_menu-18</t>
+    <t>iam_menu-19</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.edit</t>
@@ -2310,7 +2325,7 @@
     <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.logical-data-source-group|hzero.site.config.sharding.logical-data-source-group.hadm.logical-data-source-group.list.button.edit</t>
   </si>
   <si>
-    <t>iam_menu-19</t>
+    <t>iam_menu-20</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.logical-data-source-group.ps.default</t>
@@ -2331,7 +2346,7 @@
     <t>disabled</t>
   </si>
   <si>
-    <t>iam_menu-20</t>
+    <t>iam_menu-21</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.proxy-rule</t>
@@ -2340,7 +2355,7 @@
     <t>Proxy规则配置</t>
   </si>
   <si>
-    <t>Proxy rule configuration</t>
+    <t>Proxy rule config</t>
   </si>
   <si>
     <t>GZPZ</t>
@@ -2358,7 +2373,127 @@
     <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule</t>
   </si>
   <si>
-    <t>iam_menu-21</t>
+    <t>iam_menu-22</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-addBroadcast</t>
+  </si>
+  <si>
+    <t>规则配置详情-添加广播表</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-addBroadcast</t>
+  </si>
+  <si>
+    <t>iam_menu-23</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-addUser</t>
+  </si>
+  <si>
+    <t>规则配置详情-生成proxy配置</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-addUser</t>
+  </si>
+  <si>
+    <t>iam_menu-24</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-removeBroadcast</t>
+  </si>
+  <si>
+    <t>规则配置详情-移除广播表</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-removeBroadcast</t>
+  </si>
+  <si>
+    <t>iam_menu-25</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-save</t>
+  </si>
+  <si>
+    <t>规则配置详情-保存</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id-save</t>
+  </si>
+  <si>
+    <t>iam_menu-26</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id.button.delete</t>
+  </si>
+  <si>
+    <t>规则配置详情-删除</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id.button.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-27</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id.button.edit</t>
+  </si>
+  <si>
+    <t>规则配置详情-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.detail.-id.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-28</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.create</t>
+  </si>
+  <si>
+    <t>规则配置-新建</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.create</t>
+  </si>
+  <si>
+    <t>iam_menu-29</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.delete</t>
+  </si>
+  <si>
+    <t>规则配置-删除</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-30</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.edit</t>
+  </si>
+  <si>
+    <t>规则配置-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-31</t>
+  </si>
+  <si>
+    <t>hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.refresh</t>
+  </si>
+  <si>
+    <t>规则配置-刷新</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.sharding|hzero.site.config.sharding.proxy-rule|hzero.site.config.sharding.proxy-rule.hadm.rule-config.list.button.refresh</t>
+  </si>
+  <si>
+    <t>iam_menu-32</t>
   </si>
   <si>
     <t>hzero.site.config.sharding.proxy-rule.ps.default</t>
@@ -2385,55 +2520,55 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hzero-admin.logic-datasource-group-site.list</t>
+    <t>hzero-admin.sp-logic-datasource-group-site.detail</t>
   </si>
   <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.detail</t>
+    <t>hzero-admin.sp-logic-datasource-group-site.list</t>
   </si>
   <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.list</t>
+    <t>hzero-admin.sp-logic-datasource-group-site.remove</t>
   </si>
   <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.remove</t>
+    <t>hzero-admin.sp-logic-datasource-group-site.save</t>
   </si>
   <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.save</t>
+    <t>hzero-admin.sp-logic-datasource-group-site.setDefaultDataSource</t>
   </si>
   <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.setDefaultDataSource</t>
+    <t>hzero-admin.sp-logic-datasource-site.create</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.create</t>
+    <t>hzero-admin.sp-logic-datasource-site.detail</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.detail</t>
+    <t>hzero-admin.sp-logic-datasource-site.list</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.list</t>
+    <t>hzero-admin.sp-logic-datasource-site.order</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
@@ -2463,63 +2598,75 @@
     <t>iam_menu_permission-21</t>
   </si>
   <si>
+    <t>hzero-admin.sp-rule-header-site.binding</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
     <t>hzero-admin.sp-rule-header-site.broadcastTablesAdd</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.broadcastTablesRemove</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.generateConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-26</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-27</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.remove</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-28</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.save</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-header-site.updateProxyConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-30</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-line-site.pageRuleLineDto</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
+    <t>iam_menu_permission-31</t>
   </si>
   <si>
     <t>hzero-admin.sp-rule-line-site.remove</t>
   </si>
   <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>hzero-admin.url-rule-user.batchCreate</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2586,10 +2733,10 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>134354801085124640</t>
   </si>
   <si>
     <t>iam_role-9</t>
@@ -3992,7 +4139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4190,8 +4337,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>逻辑数据源插件菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -4249,8 +4397,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>逻辑数据源插件菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>107</v>
@@ -4305,14 +4454,18 @@
       <c r="H11" t="s">
         <v>115</v>
       </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -4320,6 +4473,9 @@
       <c r="N11" t="s">
         <v>88</v>
       </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -4327,13 +4483,13 @@
         <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T11" t="s">
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -4342,30 +4498,34 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4373,6 +4533,9 @@
       <c r="N12" t="s">
         <v>88</v>
       </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
       <c r="Q12" t="s">
         <v>85</v>
       </c>
@@ -4380,13 +4543,13 @@
         <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T12" t="s">
         <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
         <v>88</v>
@@ -4395,30 +4558,34 @@
         <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s">
         <v>85</v>
@@ -4426,6 +4593,9 @@
       <c r="N13" t="s">
         <v>88</v>
       </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
       <c r="Q13" t="s">
         <v>85</v>
       </c>
@@ -4433,13 +4603,13 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
         <v>88</v>
@@ -4448,30 +4618,34 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
@@ -4479,6 +4653,9 @@
       <c r="N14" t="s">
         <v>88</v>
       </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
       <c r="Q14" t="s">
         <v>85</v>
       </c>
@@ -4486,13 +4663,13 @@
         <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T14" t="s">
         <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X14" t="s">
         <v>88</v>
@@ -4501,36 +4678,43 @@
         <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
         <v>137</v>
       </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
       <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s">
         <v>85</v>
       </c>
       <c r="N15" t="s">
         <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
       </c>
       <c r="Q15" t="s">
         <v>85</v>
@@ -4545,7 +4729,7 @@
         <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X15" t="s">
         <v>88</v>
@@ -4554,7 +4738,7 @@
         <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -4570,20 +4754,27 @@
       <c r="H16" t="s">
         <v>142</v>
       </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
       </c>
       <c r="Q16" t="s">
         <v>85</v>
@@ -4598,7 +4789,7 @@
         <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X16" t="s">
         <v>88</v>
@@ -4607,7 +4798,7 @@
         <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -4623,20 +4814,27 @@
       <c r="H17" t="s">
         <v>147</v>
       </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s">
         <v>85</v>
       </c>
       <c r="N17" t="s">
         <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
         <v>85</v>
@@ -4651,7 +4849,7 @@
         <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X17" t="s">
         <v>88</v>
@@ -4660,7 +4858,7 @@
         <v>91</v>
       </c>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -4676,20 +4874,27 @@
       <c r="H18" t="s">
         <v>152</v>
       </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
       <c r="J18" t="s">
         <v>84</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
         <v>85</v>
       </c>
       <c r="N18" t="s">
         <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
       </c>
       <c r="Q18" t="s">
         <v>85</v>
@@ -4704,7 +4909,7 @@
         <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X18" t="s">
         <v>88</v>
@@ -4713,7 +4918,7 @@
         <v>91</v>
       </c>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -4729,38 +4934,42 @@
       <c r="H19" t="s">
         <v>157</v>
       </c>
+      <c r="I19" t="s">
+        <v>116</v>
+      </c>
       <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" t="s">
         <v>158</v>
       </c>
-      <c r="N19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>85</v>
-      </c>
-      <c r="R19" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" t="s">
-        <v>159</v>
-      </c>
       <c r="T19" t="s">
         <v>85</v>
       </c>
-      <c r="U19" t="s">
-        <v>160</v>
-      </c>
       <c r="V19" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="X19" t="s">
         <v>88</v>
@@ -4769,46 +4978,38 @@
         <v>91</v>
       </c>
       <c r="AC19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
         <v>161</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>162</v>
-      </c>
-      <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" t="s">
-        <v>165</v>
       </c>
       <c r="J20" t="s">
         <v>84</v>
       </c>
-      <c r="K20">
-        <f>逻辑数据源插件菜单!$E$9</f>
+      <c r="K20" t="n">
+        <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N20" t="s">
         <v>88</v>
       </c>
-      <c r="O20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P20" t="s">
-        <v>168</v>
-      </c>
       <c r="Q20" t="s">
         <v>85</v>
       </c>
@@ -4816,10 +5017,13 @@
         <v>85</v>
       </c>
       <c r="S20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T20" t="s">
         <v>85</v>
+      </c>
+      <c r="U20" t="s">
+        <v>165</v>
       </c>
       <c r="V20" t="s">
         <v>90</v>
@@ -4831,37 +5035,47 @@
         <v>91</v>
       </c>
       <c r="AC20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" t="s">
         <v>170</v>
-      </c>
-      <c r="F21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" t="s">
-        <v>157</v>
       </c>
       <c r="J21" t="s">
         <v>84</v>
       </c>
-      <c r="K21">
-        <f>逻辑数据源插件菜单!$E$20</f>
+      <c r="K21" t="n">
+        <f>逻辑数据源插件菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="N21" t="s">
         <v>88</v>
       </c>
+      <c r="O21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" t="s">
+        <v>173</v>
+      </c>
       <c r="Q21" t="s">
         <v>85</v>
       </c>
@@ -4869,13 +5083,10 @@
         <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T21" t="s">
         <v>85</v>
-      </c>
-      <c r="U21" t="s">
-        <v>160</v>
       </c>
       <c r="V21" t="s">
         <v>90</v>
@@ -4887,6 +5098,663 @@
         <v>91</v>
       </c>
       <c r="AC21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" t="s">
+        <v>178</v>
+      </c>
+      <c r="T22" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" t="s">
+        <v>119</v>
+      </c>
+      <c r="X22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" t="s">
+        <v>182</v>
+      </c>
+      <c r="T23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" t="s">
+        <v>119</v>
+      </c>
+      <c r="X23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
+        <v>119</v>
+      </c>
+      <c r="X24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>85</v>
+      </c>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>190</v>
+      </c>
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+      <c r="V25" t="s">
+        <v>119</v>
+      </c>
+      <c r="X25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" t="s">
+        <v>194</v>
+      </c>
+      <c r="T26" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26" t="s">
+        <v>119</v>
+      </c>
+      <c r="X26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" t="s">
+        <v>198</v>
+      </c>
+      <c r="T27" t="s">
+        <v>85</v>
+      </c>
+      <c r="V27" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T28" t="s">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s">
+        <v>119</v>
+      </c>
+      <c r="X28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" t="s">
+        <v>206</v>
+      </c>
+      <c r="T29" t="s">
+        <v>85</v>
+      </c>
+      <c r="V29" t="s">
+        <v>119</v>
+      </c>
+      <c r="X29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>85</v>
+      </c>
+      <c r="R30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S30" t="s">
+        <v>210</v>
+      </c>
+      <c r="T30" t="s">
+        <v>85</v>
+      </c>
+      <c r="V30" t="s">
+        <v>119</v>
+      </c>
+      <c r="X30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S31" t="s">
+        <v>214</v>
+      </c>
+      <c r="T31" t="s">
+        <v>85</v>
+      </c>
+      <c r="V31" t="s">
+        <v>119</v>
+      </c>
+      <c r="X31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" t="n">
+        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" t="s">
+        <v>163</v>
+      </c>
+      <c r="N32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" t="s">
+        <v>217</v>
+      </c>
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" t="s">
+        <v>165</v>
+      </c>
+      <c r="V32" t="s">
+        <v>90</v>
+      </c>
+      <c r="X32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC32" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4897,7 +5765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4936,22 +5804,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -4962,13 +5830,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>223</v>
+      </c>
+      <c r="F8" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -4977,18 +5846,19 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>225</v>
+      </c>
+      <c r="F9" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -4997,18 +5867,19 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>227</v>
+      </c>
+      <c r="F10" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -5017,18 +5888,19 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>229</v>
+      </c>
+      <c r="F11" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -5037,18 +5909,19 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>231</v>
+      </c>
+      <c r="F12" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -5057,18 +5930,19 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>233</v>
+      </c>
+      <c r="F13" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -5077,18 +5951,19 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>235</v>
+      </c>
+      <c r="F14" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -5097,18 +5972,19 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>237</v>
+      </c>
+      <c r="F15" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -5117,18 +5993,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>239</v>
+      </c>
+      <c r="F16" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -5142,13 +6019,14 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>241</v>
+      </c>
+      <c r="F17" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -5157,18 +6035,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18">
-        <f>逻辑数据源插件菜单!$E$19</f>
+        <v>243</v>
+      </c>
+      <c r="F18" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -5177,18 +6056,19 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>245</v>
+      </c>
+      <c r="F19" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -5197,18 +6077,19 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>247</v>
+      </c>
+      <c r="F20" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -5217,18 +6098,19 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>249</v>
+      </c>
+      <c r="F21" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
         <v>85</v>
@@ -5242,13 +6124,14 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>251</v>
+      </c>
+      <c r="F22" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
@@ -5257,18 +6140,19 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>253</v>
+      </c>
+      <c r="F23" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="H23" t="s">
         <v>85</v>
@@ -5277,18 +6161,19 @@
         <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>255</v>
+      </c>
+      <c r="F24" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H24" t="s">
         <v>85</v>
@@ -5297,18 +6182,19 @@
         <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>257</v>
+      </c>
+      <c r="F25" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="H25" t="s">
         <v>85</v>
@@ -5317,18 +6203,19 @@
         <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>259</v>
+      </c>
+      <c r="F26" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
@@ -5337,18 +6224,19 @@
         <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>261</v>
+      </c>
+      <c r="F27" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
@@ -5357,18 +6245,19 @@
         <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>263</v>
+      </c>
+      <c r="F28" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="H28" t="s">
         <v>85</v>
@@ -5377,18 +6266,19 @@
         <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>265</v>
+      </c>
+      <c r="F29" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="H29" t="s">
         <v>85</v>
@@ -5397,18 +6287,19 @@
         <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30">
-        <f>逻辑数据源插件菜单!$E$21</f>
+        <v>267</v>
+      </c>
+      <c r="F30" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
@@ -5417,6 +6308,48 @@
         <v>91</v>
       </c>
       <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5466,10 +6399,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -5484,58 +6417,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="O7" t="s" s="76">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="R7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="S7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="T7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="W7" t="s" s="77">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="X7" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="Y7" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="Z7" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -5546,19 +6479,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -5573,7 +6503,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -5594,10 +6524,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="V8" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -5609,27 +6539,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -5641,7 +6568,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -5662,10 +6589,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="V9" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -5677,24 +6604,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -5702,11 +6629,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -5727,19 +6655,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="V10" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="Y10" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -5748,7 +6676,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -5759,31 +6687,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="G12" t="s" s="81">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s" s="82">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="K12" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
@@ -5799,7 +6727,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5838,43 +6766,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="G7" t="s" s="86">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="K7" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="N7" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="O7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -5885,25 +6813,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5929,25 +6857,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s" s="89">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="H10" t="s" s="91">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="J10" t="s">
         <v>77</v>
@@ -5958,19 +6886,21 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11">
+        <v>326</v>
+      </c>
+      <c r="G11" t="n">
         <f>逻辑数据源插件菜单!$E$8</f>
-      </c>
-      <c r="H11">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J11" t="s">
         <v>91</v>
@@ -5981,19 +6911,21 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12">
+        <v>326</v>
+      </c>
+      <c r="G12" t="n">
         <f>逻辑数据源插件菜单!$E$9</f>
-      </c>
-      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J12" t="s">
         <v>91</v>
@@ -6004,19 +6936,21 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G13">
-        <f>逻辑数据源插件菜单!$E$16</f>
-      </c>
-      <c r="H13">
+        <v>326</v>
+      </c>
+      <c r="G13" t="n">
+        <f>逻辑数据源插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J13" t="s">
         <v>91</v>
@@ -6027,19 +6961,21 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14">
-        <f>逻辑数据源插件菜单!$E$19</f>
-      </c>
-      <c r="H14">
+        <v>326</v>
+      </c>
+      <c r="G14" t="n">
+        <f>逻辑数据源插件菜单!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J14" t="s">
         <v>91</v>
@@ -6050,19 +6986,21 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15">
+        <v>326</v>
+      </c>
+      <c r="G15" t="n">
         <f>逻辑数据源插件菜单!$E$21</f>
-      </c>
-      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
@@ -6073,208 +7011,26 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
-      </c>
-      <c r="G16">
-        <f>逻辑数据源插件菜单!$E$10</f>
-      </c>
-      <c r="H16">
+        <v>326</v>
+      </c>
+      <c r="G16" t="n">
+        <f>逻辑数据源插件菜单!$E$32</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J16" t="s">
         <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17">
-        <f>逻辑数据源插件菜单!$E$11</f>
-      </c>
-      <c r="H17">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I17" t="s">
-        <v>289</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F18" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18">
-        <f>逻辑数据源插件菜单!$E$12</f>
-      </c>
-      <c r="H18">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I18" t="s">
-        <v>289</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" t="s">
-        <v>277</v>
-      </c>
-      <c r="G19">
-        <f>逻辑数据源插件菜单!$E$13</f>
-      </c>
-      <c r="H19">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I19" t="s">
-        <v>289</v>
-      </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20">
-        <f>逻辑数据源插件菜单!$E$14</f>
-      </c>
-      <c r="H20">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G21">
-        <f>逻辑数据源插件菜单!$E$15</f>
-      </c>
-      <c r="H21">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22">
-        <f>逻辑数据源插件菜单!$E$17</f>
-      </c>
-      <c r="H22">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I22" t="s">
-        <v>289</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23">
-        <f>逻辑数据源插件菜单!$E$18</f>
-      </c>
-      <c r="H23">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I23" t="s">
-        <v>289</v>
-      </c>
-      <c r="J23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" t="s">
-        <v>277</v>
-      </c>
-      <c r="G24">
-        <f>逻辑数据源插件菜单!$E$20</f>
-      </c>
-      <c r="H24">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I24" t="s">
-        <v>289</v>
-      </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" t="s">
         <v>92</v>
       </c>
     </row>
